--- a/output_data/charts/capacity-LickingCounty-0500000US39089.xlsx
+++ b/output_data/charts/capacity-LickingCounty-0500000US39089.xlsx
@@ -42,7 +42,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -507,7 +507,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>15000</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>0</c:v>
@@ -516,10 +516,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29930</c:v>
+                  <c:v>29.93</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20000</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -707,7 +707,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1180000</c:v>
+                  <c:v>1180</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -847,61 +847,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2500</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61000</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3600</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9000</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>19100</c:v>
+                  <c:v>19.1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50550</c:v>
+                  <c:v>50.55</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42500</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>870400</c:v>
+                  <c:v>870.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>109300</c:v>
+                  <c:v>109.3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>33100</c:v>
+                  <c:v>33.1</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2773100</c:v>
+                  <c:v>2773.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>215900</c:v>
+                  <c:v>215.9</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>455500</c:v>
+                  <c:v>455.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>439100</c:v>
+                  <c:v>439.1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>726558</c:v>
+                  <c:v>726.558</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>776390</c:v>
+                  <c:v>776.39</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1222323</c:v>
+                  <c:v>1222.323</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>712741</c:v>
+                  <c:v>712.741</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1241,7 +1241,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2400</c:v>
+                  <c:v>2.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1342,14 +1342,14 @@
                   <a:rPr lang="en-US" sz="900" baseline="0">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Watts</a:t>
+                  <a:t>Kilowatts (kW)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
           <c:layout/>
         </c:title>
-        <c:numFmt formatCode="[&gt;=1000]#,##0,&quot;K&quot;" sourceLinked="0"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
         <c:tickLblPos val="low"/>
         <c:txPr>
           <a:bodyPr/>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="2">
-        <v>2500</v>
+        <v>2.5</v>
       </c>
       <c r="F8" s="2">
         <v>0</v>
@@ -1950,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>61000</v>
+        <v>61</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="2">
-        <v>3600</v>
+        <v>3.6</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
@@ -1996,13 +1996,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="2">
-        <v>9000</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <v>2400</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="2">
-        <v>19100</v>
+        <v>19.1</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="2">
-        <v>50550</v>
+        <v>50.55</v>
       </c>
       <c r="F14" s="2">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>42500</v>
+        <v>42.5</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>870400</v>
+        <v>870.4</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="E17" s="2">
-        <v>109300</v>
+        <v>109.3</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="2">
-        <v>33100</v>
+        <v>33.1</v>
       </c>
       <c r="F18" s="2">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="2">
-        <v>2773100</v>
+        <v>2773.1</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="2">
-        <v>215900</v>
+        <v>215.9</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
@@ -2203,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="E21" s="2">
-        <v>455500</v>
+        <v>455.5</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="C22" s="2">
-        <v>15000</v>
+        <v>15</v>
       </c>
       <c r="D22" s="2">
         <v>0</v>
       </c>
       <c r="E22" s="2">
-        <v>439100</v>
+        <v>439.1</v>
       </c>
       <c r="F22" s="2">
         <v>0</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="E23" s="2">
-        <v>726558</v>
+        <v>726.558</v>
       </c>
       <c r="F23" s="2">
         <v>0</v>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="2">
-        <v>776390</v>
+        <v>776.39</v>
       </c>
       <c r="F24" s="2">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="C25" s="2">
-        <v>29930</v>
+        <v>29.93</v>
       </c>
       <c r="D25" s="2">
-        <v>1180000</v>
+        <v>1180</v>
       </c>
       <c r="E25" s="2">
-        <v>1222323</v>
+        <v>1222.323</v>
       </c>
       <c r="F25" s="2">
         <v>0</v>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>20000</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>712741</v>
+        <v>712.741</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>

--- a/output_data/charts/capacity-LickingCounty-0500000US39089.xlsx
+++ b/output_data/charts/capacity-LickingCounty-0500000US39089.xlsx
@@ -519,7 +519,7 @@
                   <c:v>29.93</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>27.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,7 +901,7 @@
                   <c:v>1222.323</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>712.741</c:v>
+                  <c:v>2373.202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2312,13 +2312,13 @@
         <v>0</v>
       </c>
       <c r="C26" s="2">
-        <v>20</v>
+        <v>27.68</v>
       </c>
       <c r="D26" s="2">
         <v>0</v>
       </c>
       <c r="E26" s="2">
-        <v>712.741</v>
+        <v>2373.202</v>
       </c>
       <c r="F26" s="2">
         <v>0</v>
